--- a/Excel/Language/Language_104001_Error@c.xlsx
+++ b/Excel/Language/Language_104001_Error@c.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -53,6 +66,9 @@
   </si>
   <si>
     <t>输入参数有误</t>
+  </si>
+  <si>
+    <t>服务器逻辑超时</t>
   </si>
   <si>
     <t>其他人登录</t>
@@ -103,14 +119,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,12 +148,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -279,13 +289,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -613,144 +616,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,9 +769,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1184,40 +1184,40 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="3:5">
+      <c r="C10" s="5">
+        <v>104005</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="5">
-        <v>104101</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="5">
-        <v>104102</v>
+        <v>104101</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" s="5">
-        <v>104103</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>104102</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" s="5">
-        <v>104104</v>
+        <v>104103</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
@@ -1226,47 +1226,47 @@
     </row>
     <row r="15" spans="3:5">
       <c r="C15" s="5">
-        <v>104105</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>104104</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" s="5">
-        <v>104106</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>104105</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="5">
-        <v>104107</v>
+        <v>104106</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="5">
+        <v>104107</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="6">
-        <v>104111</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="6">
-        <v>104112</v>
+        <v>104111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>19</v>
@@ -1275,143 +1275,152 @@
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="6">
-        <v>104113</v>
+        <v>104112</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="6">
+        <v>104113</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="7">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="6">
         <v>104121</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="7">
+      <c r="D24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="6">
         <v>104122</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="7">
+      <c r="D25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="6">
         <v>104123</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="7">
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="6">
         <v>104124</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="7">
+      <c r="D27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="6">
         <v>104125</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="7">
+      <c r="D28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="6">
         <v>104126</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="6">
-        <v>104131</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="6">
-        <v>104132</v>
+        <v>104131</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="3:5">
+      <c r="C32" s="6">
+        <v>104132</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="6">
-        <v>104141</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="6">
-        <v>104142</v>
+        <v>104141</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="3:5">
+      <c r="C35" s="6">
+        <v>104142</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="6">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="6">
         <v>104151</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="1">
+      <c r="D37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="1">
         <v>104161</v>
       </c>
-      <c r="D37" t="s">
-        <v>27</v>
+      <c r="D38" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
